--- a/documents/reporteMantenimiento.xlsx
+++ b/documents/reporteMantenimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9521\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DE0F37-52F3-42F7-BB7E-3F0F45C59AA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FA58BF-27BB-442D-B020-CC6E58E48B09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>CAJA COSTARRICENSE DEL SEGURO SOCIAL</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Equipo</t>
-  </si>
-  <si>
-    <t>QWE123</t>
   </si>
   <si>
     <t>Km Inicial</t>
@@ -1043,11 +1040,267 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1055,267 +1308,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,154 +1673,154 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="98"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="95"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
     </row>
     <row r="4" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="101"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
     </row>
     <row r="5" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="101"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
     </row>
     <row r="6" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="101"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="81"/>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="68"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="2:15" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="31" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="32"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="2:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="40" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="26"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="4">
         <v>3</v>
       </c>
@@ -1833,53 +1830,53 @@
       <c r="L11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="36"/>
     </row>
     <row r="12" spans="2:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="4">
         <v>14</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="35" t="s">
+      <c r="M12" s="32"/>
+      <c r="N12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="69">
         <v>2536</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="22"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
@@ -1904,362 +1901,356 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="83" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="12" t="s">
+      <c r="J17" s="95"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="101"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="85" t="s">
+      <c r="J18" s="63"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="65"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="86"/>
-      <c r="K18" s="62">
-        <v>300</v>
-      </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="60"/>
-    </row>
-    <row r="19" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="85" t="s">
+      <c r="J19" s="63"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="65"/>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="87"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="86"/>
-      <c r="K19" s="62">
-        <v>15</v>
-      </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="60"/>
-    </row>
-    <row r="20" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="87" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="80"/>
-    </row>
-    <row r="21" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="82"/>
-    </row>
-    <row r="22" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="23"/>
+      <c r="M22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="58"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="23"/>
     </row>
     <row r="23" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="91"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
     </row>
     <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="91"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
     </row>
     <row r="25" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="91"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="91"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="73"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="91"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="91"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13"/>
     </row>
     <row r="29" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="91"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
     </row>
     <row r="30" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="91"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="67"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="91"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="91"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="91"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="91"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="91"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="91"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="13"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="92"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="28"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
@@ -2272,36 +2263,36 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K20:O21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="B17:H21"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B33:J33"/>
@@ -2315,39 +2306,39 @@
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:O3"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="B17:H21"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K20:O21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
